--- a/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>SILO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,63 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,8 +749,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -751,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -762,17 +775,23 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -780,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -791,17 +810,23 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,13 +838,15 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -828,22 +855,28 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,37 +904,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,37 +990,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,28 +1036,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1031,16 +1098,22 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1065,11 +1138,17 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1077,57 +1156,69 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1379,45 +1518,57 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,22 +1705,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1900</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1558,18 +1731,24 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1584,36 +1763,42 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>300</v>
+      </c>
+      <c r="M42" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -1621,8 +1806,14 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1630,43 +1821,49 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
       </c>
       <c r="H44" s="3">
+        <v>200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>200</v>
+      </c>
+      <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -1679,37 +1876,49 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1722,14 +1931,14 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>200</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>200</v>
@@ -1737,8 +1946,14 @@
       <c r="K47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>200</v>
+      </c>
+      <c r="M47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1766,8 +1981,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1780,11 +2001,11 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,20 +2086,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,22 +2156,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F54" s="3">
         <v>2200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>500</v>
       </c>
       <c r="H54" s="3">
         <v>400</v>
@@ -1935,13 +2186,19 @@
         <v>500</v>
       </c>
       <c r="J54" s="3">
+        <v>400</v>
+      </c>
+      <c r="K54" s="3">
+        <v>500</v>
+      </c>
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,13 +2225,15 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -1987,16 +2248,22 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2007,36 +2274,42 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>100</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -2047,34 +2320,40 @@
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
+        <v>300</v>
+      </c>
+      <c r="I60" s="3">
         <v>100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -2082,8 +2361,14 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,37 +2396,49 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,28 +2536,34 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
       <c r="H66" s="3">
+        <v>300</v>
+      </c>
+      <c r="I66" s="3">
         <v>100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>100</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2336,10 +2671,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>400</v>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>400</v>
+      </c>
+      <c r="M70" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F76" s="3">
         <v>2100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,8 +3236,14 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2818,28 +3251,34 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1900</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>SILO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,72 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -755,8 +759,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -764,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -781,8 +788,8 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -790,20 +797,23 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
@@ -816,8 +826,8 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -849,7 +863,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -861,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>100</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,31 +927,34 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -942,11 +962,14 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,31 +1018,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1025,33 +1052,36 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-500</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
@@ -1060,10 +1090,13 @@
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,16 +1110,17 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1104,24 +1138,27 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-900</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1144,11 +1181,14 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1162,16 +1202,16 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1179,46 +1219,52 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,16 +1564,19 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1524,51 +1594,57 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E41" s="3">
         <v>4600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1900</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1751,7 +1841,7 @@
         <v>600</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1769,16 +1859,19 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1789,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
@@ -1800,8 +1893,8 @@
       <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>200</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -1812,13 +1905,16 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -1827,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -1836,10 +1932,10 @@
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1847,8 +1943,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1859,14 +1958,14 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -1882,43 +1981,49 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1937,11 +2042,11 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>200</v>
@@ -1952,8 +2057,11 @@
       <c r="M47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2007,8 +2118,8 @@
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,22 +2209,25 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3">
-        <v>100</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2236,7 +2367,7 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -2254,7 +2385,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2280,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2297,16 +2431,19 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
+      <c r="E59" s="3">
+        <v>100</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
@@ -2314,17 +2451,17 @@
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
@@ -2332,8 +2469,11 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2341,7 +2481,7 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
@@ -2350,25 +2490,28 @@
         <v>100</v>
       </c>
       <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
-        <v>100</v>
-      </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,17 +2545,20 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2428,8 +2574,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,17 +2697,20 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
-        <v>100</v>
-      </c>
       <c r="F66" s="3">
         <v>100</v>
       </c>
@@ -2560,25 +2718,28 @@
         <v>100</v>
       </c>
       <c r="H66" s="3">
+        <v>100</v>
+      </c>
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
-        <v>100</v>
-      </c>
       <c r="J66" s="3">
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2677,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>400</v>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E76" s="3">
         <v>4200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
-        <v>100</v>
-      </c>
       <c r="L76" s="3">
+        <v>100</v>
+      </c>
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3058,17 +3257,20 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3411,29 +3641,32 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
-        <v>100</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>100</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,32 +3830,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>3800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -3622,8 +3868,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>SILO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,79 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -762,8 +766,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -774,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -791,8 +798,8 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -800,23 +807,26 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
@@ -829,8 +839,8 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -866,7 +880,7 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -878,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>100</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,34 +947,37 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -965,11 +985,14 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,34 +1045,35 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1055,36 +1082,39 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
@@ -1093,10 +1123,13 @@
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,19 +1144,20 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1141,16 +1175,19 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>100</v>
-      </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1158,11 +1195,11 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1184,11 +1221,14 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1205,16 +1245,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1222,72 +1262,78 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,31 +1511,34 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,20 +1634,23 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1597,54 +1667,60 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,57 +1880,61 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E41" s="3">
         <v>4200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1900</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E42" s="3">
         <v>600</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1862,16 +1952,19 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1885,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
@@ -1896,8 +1989,8 @@
       <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>200</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -1908,16 +2001,19 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>100</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -1926,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
@@ -1935,10 +2031,10 @@
         <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -1946,8 +2042,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1961,14 +2060,14 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -1984,51 +2083,57 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E46" s="3">
         <v>5000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>100</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>4</v>
@@ -2045,11 +2150,11 @@
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>200</v>
@@ -2060,8 +2165,11 @@
       <c r="N47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2098,28 +2206,31 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2223,14 +2343,14 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3">
-        <v>100</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
+        <v>100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E54" s="3">
         <v>5000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2488,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2370,7 +2501,7 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2388,7 +2519,7 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2396,8 +2527,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2417,13 +2551,13 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2434,8 +2568,11 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2445,8 +2582,8 @@
       <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+      <c r="F59" s="3">
+        <v>100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -2454,17 +2591,17 @@
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
@@ -2472,8 +2609,11 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2484,7 +2624,7 @@
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -2493,25 +2633,28 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
-        <v>100</v>
-      </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2691,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2557,11 +2703,11 @@
         <v>1000</v>
       </c>
       <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2577,8 +2723,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,8 +2855,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2709,11 +2867,11 @@
         <v>1200</v>
       </c>
       <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
-        <v>100</v>
-      </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
@@ -2721,25 +2879,28 @@
         <v>100</v>
       </c>
       <c r="I66" s="3">
+        <v>100</v>
+      </c>
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
-        <v>100</v>
-      </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2848,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>400</v>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E76" s="3">
         <v>3800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
-        <v>100</v>
-      </c>
       <c r="M76" s="3">
+        <v>100</v>
+      </c>
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3260,17 +3459,20 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,13 +3854,16 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3644,29 +3874,32 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
-        <v>100</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>100</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4076,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3842,26 +4088,26 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>3800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>2100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -3871,8 +4117,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>SILO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,78 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -737,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -769,8 +776,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -801,17 +814,23 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -819,20 +838,20 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
@@ -842,17 +861,23 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,25 +893,27 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -895,13 +922,13 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>100</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,49 +983,61 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,49 +1097,57 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>700</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,40 +1155,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-700</v>
-      </c>
       <c r="I18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-400</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1210,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1154,16 +1221,16 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>7000</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1178,34 +1245,40 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>100</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-500</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1224,11 +1297,17 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1248,98 +1327,110 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>6500</v>
       </c>
-      <c r="E23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1350,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>6500</v>
       </c>
-      <c r="E26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>6500</v>
       </c>
-      <c r="E27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,37 +1629,43 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-100</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
+      <c r="G29" s="3">
+        <v>-100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="I29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1770,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1646,16 +1785,16 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1670,57 +1809,69 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>6400</v>
       </c>
-      <c r="E33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>6400</v>
       </c>
-      <c r="E35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,35 +2052,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F41" s="3">
         <v>10300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1900</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -1917,31 +2090,37 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>400</v>
+      </c>
+      <c r="F42" s="3">
         <v>800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>600</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
@@ -1955,21 +2134,27 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O42" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -1981,22 +2166,22 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3">
+        <v>200</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2004,8 +2189,14 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2013,40 +2204,46 @@
         <v>4</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2054,7 +2251,7 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
@@ -2063,17 +2260,17 @@
         <v>200</v>
       </c>
       <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2086,60 +2283,72 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F46" s="3">
         <v>11300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="E47" s="3">
+        <v>100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -2153,14 +2362,14 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>200</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>200</v>
@@ -2168,8 +2377,14 @@
       <c r="O47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2209,8 +2424,14 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2346,17 +2585,17 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2373,8 +2612,14 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,34 +2659,40 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F54" s="3">
         <v>11400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>500</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
@@ -2450,13 +2701,19 @@
         <v>500</v>
       </c>
       <c r="N54" s="3">
+        <v>400</v>
+      </c>
+      <c r="O54" s="3">
+        <v>500</v>
+      </c>
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2748,10 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2498,16 +2759,16 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2522,21 +2783,27 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2554,16 +2821,16 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2571,8 +2838,14 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2585,17 +2858,17 @@
       <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -2606,14 +2879,20 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2621,31 +2900,31 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
       <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
-        <v>100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>100</v>
-      </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
@@ -2653,8 +2932,14 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,26 +2979,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>900</v>
+      </c>
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2726,17 +3017,23 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,8 +3167,14 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2867,31 +3182,31 @@
         <v>1200</v>
       </c>
       <c r="E66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
-        <v>100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100</v>
-      </c>
       <c r="I66" s="3">
         <v>100</v>
       </c>
       <c r="J66" s="3">
+        <v>100</v>
+      </c>
+      <c r="K66" s="3">
+        <v>100</v>
+      </c>
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
-        <v>100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>100</v>
-      </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
@@ -2899,8 +3214,14 @@
       <c r="O66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3019,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>400</v>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-4300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F76" s="3">
         <v>10200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
-        <v>100</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
+        <v>100</v>
+      </c>
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>6400</v>
       </c>
-      <c r="E81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3462,17 +3859,23 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
-      </c>
       <c r="G89" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +4173,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +4216,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>300</v>
+      </c>
+      <c r="F94" s="3">
         <v>6800</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>100</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>100</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4564,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4091,37 +4582,43 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>3800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>6100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1900</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>SILO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -803,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -820,8 +827,8 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,11 +860,11 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
@@ -867,8 +877,8 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,28 +908,29 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
       <c r="G12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -928,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>100</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,16 +1006,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1006,26 +1026,26 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1033,11 +1053,14 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,43 +1125,44 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
-        <v>1400</v>
-      </c>
       <c r="H17" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="I17" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="J17" s="3">
         <v>600</v>
       </c>
       <c r="K17" s="3">
+        <v>600</v>
+      </c>
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1144,10 +1171,13 @@
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,34 +1185,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H18" s="3">
-        <v>-1000</v>
+        <v>-400</v>
       </c>
       <c r="I18" s="3">
-        <v>-600</v>
+        <v>-900</v>
       </c>
       <c r="J18" s="3">
         <v>-600</v>
       </c>
       <c r="K18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
@@ -1191,10 +1221,13 @@
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1224,16 +1258,16 @@
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>7000</v>
       </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1251,37 +1285,40 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>100</v>
-      </c>
       <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>6500</v>
       </c>
-      <c r="G21" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1303,19 +1340,22 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1333,16 +1373,16 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1350,58 +1390,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-700</v>
       </c>
       <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-600</v>
       </c>
       <c r="J23" s="3">
         <v>-600</v>
       </c>
       <c r="K23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1417,8 +1463,8 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1426,14 +1472,14 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-600</v>
       </c>
       <c r="J26" s="3">
         <v>-600</v>
       </c>
       <c r="K26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-700</v>
       </c>
       <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-2700</v>
-      </c>
       <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-600</v>
       </c>
       <c r="J27" s="3">
         <v>-600</v>
       </c>
       <c r="K27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1647,28 +1708,28 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>-100</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
+      <c r="H29" s="3">
+        <v>-100</v>
       </c>
       <c r="I29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1788,90 +1858,96 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-7000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-700</v>
       </c>
       <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-2800</v>
-      </c>
       <c r="H33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-700</v>
       </c>
       <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-2800</v>
-      </c>
       <c r="H35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,75 +2140,79 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E41" s="3">
         <v>9100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
         <v>300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>800</v>
-      </c>
-      <c r="G42" s="3">
-        <v>600</v>
       </c>
       <c r="H42" s="3">
         <v>600</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -2140,24 +2230,27 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2172,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
@@ -2183,8 +2276,8 @@
       <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>200</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2195,25 +2288,28 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3">
-        <v>100</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -2222,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
@@ -2231,10 +2327,10 @@
         <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2242,19 +2338,22 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -2266,14 +2365,14 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -2289,55 +2388,61 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E46" s="3">
         <v>9600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2350,8 +2455,8 @@
       <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+      <c r="G47" s="3">
+        <v>100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -2368,11 +2473,11 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>200</v>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2591,14 +2711,14 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3">
-        <v>100</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
+        <v>100</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,10 +2890,10 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -2771,7 +2902,7 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -2789,7 +2920,7 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -2797,16 +2928,19 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2827,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2864,8 +3001,8 @@
       <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -2873,17 +3010,17 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
@@ -2891,8 +3028,11 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2900,10 +3040,10 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
+        <v>300</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
@@ -2912,7 +3052,7 @@
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -2921,25 +3061,28 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2997,17 +3143,17 @@
         <v>900</v>
       </c>
       <c r="F62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G62" s="3">
         <v>1000</v>
       </c>
       <c r="H62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3023,8 +3169,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3328,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3182,20 +3340,20 @@
         <v>1200</v>
       </c>
       <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1200</v>
       </c>
       <c r="G66" s="3">
         <v>1200</v>
       </c>
       <c r="H66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
-        <v>100</v>
-      </c>
       <c r="J66" s="3">
         <v>100</v>
       </c>
@@ -3203,25 +3361,28 @@
         <v>100</v>
       </c>
       <c r="L66" s="3">
+        <v>100</v>
+      </c>
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
-        <v>100</v>
-      </c>
       <c r="N66" s="3">
         <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3360,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>400</v>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E76" s="3">
         <v>8500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
-        <v>100</v>
-      </c>
       <c r="P76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-700</v>
       </c>
       <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-2800</v>
-      </c>
       <c r="H81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3865,17 +4064,20 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
         <v>-800</v>
       </c>
       <c r="F89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
-        <v>-800</v>
-      </c>
       <c r="H89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,23 +4543,26 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6800</v>
       </c>
-      <c r="G94" s="3">
-        <v>100</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4342,29 +4572,32 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
-        <v>100</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>100</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4585,29 +4831,29 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>3800</v>
       </c>
-      <c r="H100" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6100</v>
       </c>
-      <c r="G102" s="3">
-        <v>3000</v>
-      </c>
       <c r="H102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I102" s="3">
         <v>3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>SILO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -813,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -830,8 +837,8 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,11 +873,11 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
@@ -880,8 +890,8 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,23 +922,24 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
@@ -933,7 +947,7 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -945,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>100</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,19 +1026,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1029,26 +1049,26 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1056,11 +1076,14 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,46 +1152,47 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>500</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
       </c>
       <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>600</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1174,10 +1201,13 @@
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1188,34 +1218,34 @@
         <v>-500</v>
       </c>
       <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-600</v>
       </c>
       <c r="K18" s="3">
         <v>-600</v>
       </c>
       <c r="L18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
@@ -1224,10 +1254,13 @@
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1261,16 +1295,16 @@
         <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>7000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1288,16 +1322,19 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>100</v>
-      </c>
       <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,23 +1342,23 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>6500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1343,22 +1380,25 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1376,16 +1416,16 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1393,61 +1433,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-600</v>
       </c>
       <c r="K23" s="3">
         <v>-600</v>
       </c>
       <c r="L23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1475,14 +1521,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-600</v>
       </c>
       <c r="K26" s="3">
         <v>-600</v>
       </c>
       <c r="L26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-600</v>
       </c>
       <c r="K27" s="3">
         <v>-600</v>
       </c>
       <c r="L27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1711,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>-100</v>
@@ -1720,19 +1781,19 @@
         <v>-100</v>
       </c>
       <c r="J29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1861,17 +1931,17 @@
         <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-7000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1888,66 +1958,72 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E41" s="3">
         <v>8700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1900</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2200,22 +2290,22 @@
         <v>100</v>
       </c>
       <c r="E42" s="3">
+        <v>100</v>
+      </c>
+      <c r="F42" s="3">
         <v>300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>800</v>
-      </c>
-      <c r="H42" s="3">
-        <v>600</v>
       </c>
       <c r="I42" s="3">
         <v>600</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2233,16 +2323,19 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2252,8 +2345,8 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2268,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
@@ -2279,8 +2372,8 @@
       <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>200</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2302,17 +2398,17 @@
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3">
-        <v>100</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2321,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
@@ -2330,10 +2426,10 @@
         <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2341,22 +2437,25 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -2368,14 +2467,14 @@
         <v>200</v>
       </c>
       <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -2391,58 +2490,64 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E46" s="3">
         <v>8900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2458,8 +2563,8 @@
       <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="H47" s="3">
+        <v>100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
@@ -2476,11 +2581,11 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>200</v>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,13 +2808,16 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2714,14 +2834,14 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
-        <v>100</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
+        <v>100</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2893,10 +3024,10 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -2905,7 +3036,7 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -2923,7 +3054,7 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2942,8 +3076,8 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2964,13 +3098,13 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2981,8 +3115,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3004,8 +3141,8 @@
       <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3">
+        <v>100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -3013,17 +3150,17 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
@@ -3031,8 +3168,11 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3043,10 +3183,10 @@
         <v>300</v>
       </c>
       <c r="F60" s="3">
+        <v>300</v>
+      </c>
+      <c r="G60" s="3">
         <v>500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -3055,7 +3195,7 @@
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -3064,25 +3204,28 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
-        <v>100</v>
-      </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3146,17 +3292,17 @@
         <v>900</v>
       </c>
       <c r="G62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H62" s="3">
         <v>1000</v>
       </c>
       <c r="I62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3172,8 +3318,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3486,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3343,20 +3501,20 @@
         <v>1200</v>
       </c>
       <c r="F66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G66" s="3">
         <v>1400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1200</v>
       </c>
       <c r="H66" s="3">
         <v>1200</v>
       </c>
       <c r="I66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
-        <v>100</v>
-      </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
@@ -3364,25 +3522,28 @@
         <v>100</v>
       </c>
       <c r="M66" s="3">
+        <v>100</v>
+      </c>
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
-        <v>100</v>
-      </c>
       <c r="O66" s="3">
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3531,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>400</v>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E76" s="3">
         <v>7900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
-        <v>100</v>
-      </c>
       <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4067,17 +4266,20 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-800</v>
       </c>
       <c r="F89" s="3">
         <v>-800</v>
       </c>
       <c r="G89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,26 +4773,29 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6800</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4575,29 +4805,32 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
-        <v>100</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>100</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,13 +5059,16 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4837,26 +5083,26 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>3800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -4866,8 +5112,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>SILO</t>
   </si>
@@ -1158,8 +1158,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
@@ -1391,8 +1391,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
@@ -1444,8 +1444,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-1000</v>
       </c>
       <c r="E23" s="3">
         <v>-700</v>

--- a/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>SILO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,93 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +803,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -823,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -840,17 +853,23 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,14 +895,14 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
@@ -893,17 +912,23 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,37 +948,39 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>600</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>100</v>
-      </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -962,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>100</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
@@ -976,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,61 +1062,73 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,61 +1204,69 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1000</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
       </c>
       <c r="I17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,52 +1274,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1000</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
       </c>
       <c r="I18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-400</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,28 +1356,28 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
         <v>7000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1325,46 +1392,52 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>100</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>6500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1383,28 +1456,34 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1419,81 +1498,93 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>6500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1524,17 +1615,17 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1545,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>6500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>6500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1775,31 +1896,31 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>-100</v>
       </c>
       <c r="K29" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="M29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1810,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,29 +2064,29 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-7000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1961,69 +2100,81 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>6400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>6400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,47 +2399,49 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F41" s="3">
         <v>12300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>8700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>9100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>9800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>10300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1900</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2276,43 +2449,49 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100</v>
+        <v>6000</v>
       </c>
       <c r="E42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>100</v>
+      </c>
+      <c r="G42" s="3">
+        <v>100</v>
+      </c>
+      <c r="H42" s="3">
         <v>300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>600</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
@@ -2326,33 +2505,39 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S42" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>300</v>
+      </c>
+      <c r="U42" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2364,22 +2549,22 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>200</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2387,8 +2572,14 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2401,58 +2592,64 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2461,7 +2658,7 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
@@ -2470,17 +2667,17 @@
         <v>200</v>
       </c>
       <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
+        <v>200</v>
+      </c>
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -2493,69 +2690,81 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F46" s="3">
         <v>12900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>8900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>10400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>11300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>100</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>100</v>
@@ -2566,11 +2775,11 @@
       <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3">
+        <v>100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
@@ -2584,14 +2793,14 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>200</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>200</v>
@@ -2599,8 +2808,14 @@
       <c r="S47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>200</v>
+      </c>
+      <c r="U47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2652,8 +2867,14 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2820,10 +3059,10 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2837,17 +3076,17 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>100</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -2864,8 +3103,14 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,46 +3162,52 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F54" s="3">
         <v>13000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>11400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>500</v>
       </c>
       <c r="P54" s="3">
         <v>400</v>
@@ -2965,13 +3216,19 @@
         <v>500</v>
       </c>
       <c r="R54" s="3">
+        <v>400</v>
+      </c>
+      <c r="S54" s="3">
+        <v>500</v>
+      </c>
+      <c r="T54" s="3">
         <v>800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,37 +3271,39 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -3057,27 +3318,33 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3101,16 +3368,16 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3118,8 +3385,14 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3144,17 +3417,17 @@
       <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>100</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
@@ -3165,58 +3438,64 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
       <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
-        <v>100</v>
-      </c>
-      <c r="P60" s="3">
-        <v>100</v>
-      </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
@@ -3224,8 +3503,14 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,13 +3562,19 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E62" s="3">
         <v>900</v>
@@ -3295,20 +3586,20 @@
         <v>900</v>
       </c>
       <c r="H62" s="3">
+        <v>900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>900</v>
+      </c>
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3321,17 +3612,23 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,52 +3798,58 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E66" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F66" s="3">
         <v>1200</v>
       </c>
       <c r="G66" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="H66" s="3">
         <v>1200</v>
       </c>
       <c r="I66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
-        <v>100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>100</v>
-      </c>
       <c r="M66" s="3">
         <v>100</v>
       </c>
       <c r="N66" s="3">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3">
+        <v>100</v>
+      </c>
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
-        <v>100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>100</v>
-      </c>
       <c r="Q66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R66" s="3">
         <v>100</v>
@@ -3542,8 +3857,14 @@
       <c r="S66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3702,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>400</v>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>400</v>
+      </c>
+      <c r="U70" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-3300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F76" s="3">
         <v>11900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>7900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>10200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
-        <v>100</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
+        <v>100</v>
+      </c>
+      <c r="T76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>6400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4269,17 +4666,23 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,31 +4970,37 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-500</v>
@@ -4576,28 +5009,34 @@
         <v>-300</v>
       </c>
       <c r="M89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="E94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>6800</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>100</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,20 +5547,26 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>4900</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5086,37 +5577,43 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>3800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F102" s="3">
         <v>3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>6100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J102" s="3">
-        <v>3500</v>
       </c>
       <c r="K102" s="3">
         <v>-500</v>
       </c>
       <c r="L102" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1900</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>SILO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +813,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -842,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -859,8 +866,8 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,11 +911,11 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
@@ -918,8 +928,8 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,32 +963,33 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
-        <v>100</v>
-      </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
@@ -983,7 +997,7 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -995,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>100</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,16 +1085,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1085,11 +1105,11 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1097,26 +1117,26 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1124,11 +1144,14 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,55 +1232,56 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
       </c>
       <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>600</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1263,10 +1290,13 @@
         <v>200</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,46 +1304,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-500</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
       </c>
       <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-600</v>
       </c>
       <c r="N18" s="3">
         <v>-600</v>
       </c>
       <c r="O18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
@@ -1322,10 +1352,13 @@
         <v>-200</v>
       </c>
       <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,13 +1390,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1371,16 +1405,16 @@
         <v>-100</v>
       </c>
       <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
         <v>7000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1398,16 +1432,19 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>100</v>
-      </c>
       <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1417,30 +1454,30 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>6500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1462,11 +1499,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1476,8 +1516,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1485,8 +1525,8 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1504,16 +1544,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1521,70 +1561,76 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-600</v>
       </c>
       <c r="N23" s="3">
         <v>-600</v>
       </c>
       <c r="O23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1621,14 +1667,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-600</v>
       </c>
       <c r="N26" s="3">
         <v>-600</v>
       </c>
       <c r="O26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-600</v>
       </c>
       <c r="N27" s="3">
         <v>-600</v>
       </c>
       <c r="O27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1902,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K29" s="3">
         <v>-100</v>
@@ -1911,19 +1972,19 @@
         <v>-100</v>
       </c>
       <c r="M29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,13 +2134,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -2079,17 +2149,17 @@
         <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2106,75 +2176,81 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,99 +2487,103 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>4700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1900</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E42" s="3">
         <v>6000</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
       <c r="F42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>100</v>
       </c>
       <c r="H42" s="3">
+        <v>100</v>
+      </c>
+      <c r="I42" s="3">
         <v>300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>800</v>
-      </c>
-      <c r="K42" s="3">
-        <v>600</v>
       </c>
       <c r="L42" s="3">
         <v>600</v>
       </c>
       <c r="M42" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2511,16 +2601,19 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2530,8 +2623,8 @@
       <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -2539,8 +2632,8 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2555,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
@@ -2566,8 +2659,8 @@
       <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>200</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
@@ -2578,37 +2671,40 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3">
-        <v>100</v>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2617,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
@@ -2626,10 +2722,10 @@
         <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2637,31 +2733,34 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
@@ -2673,14 +2772,14 @@
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
@@ -2696,78 +2795,84 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E46" s="3">
         <v>11000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>100</v>
@@ -2781,8 +2886,8 @@
       <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>100</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -2799,11 +2904,11 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
         <v>200</v>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3065,7 +3185,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3082,14 +3202,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3">
-        <v>100</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
+        <v>100</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E54" s="3">
         <v>11000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,19 +3403,20 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -3294,10 +3425,10 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -3306,7 +3437,7 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3324,7 +3455,7 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3374,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3391,8 +3525,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3423,8 +3560,8 @@
       <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>100</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
@@ -3432,17 +3569,17 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
@@ -3450,19 +3587,22 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
@@ -3471,10 +3611,10 @@
         <v>300</v>
       </c>
       <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
         <v>500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
@@ -3483,7 +3623,7 @@
         <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
@@ -3492,25 +3632,28 @@
         <v>100</v>
       </c>
       <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
-        <v>100</v>
-      </c>
       <c r="R60" s="3">
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3577,7 +3723,7 @@
         <v>800</v>
       </c>
       <c r="E62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F62" s="3">
         <v>900</v>
@@ -3592,17 +3738,17 @@
         <v>900</v>
       </c>
       <c r="J62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K62" s="3">
         <v>1000</v>
       </c>
       <c r="L62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3618,8 +3764,8 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,19 +3959,22 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1200</v>
       </c>
       <c r="G66" s="3">
         <v>1200</v>
@@ -3825,20 +3983,20 @@
         <v>1200</v>
       </c>
       <c r="I66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J66" s="3">
         <v>1400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1200</v>
       </c>
       <c r="K66" s="3">
         <v>1200</v>
       </c>
       <c r="L66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
-        <v>100</v>
-      </c>
       <c r="N66" s="3">
         <v>100</v>
       </c>
@@ -3846,25 +4004,28 @@
         <v>100</v>
       </c>
       <c r="P66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
-        <v>100</v>
-      </c>
       <c r="R66" s="3">
         <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4043,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>400</v>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E76" s="3">
         <v>9400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
       <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="S76" s="3">
-        <v>100</v>
-      </c>
       <c r="T76" s="3">
+        <v>100</v>
+      </c>
+      <c r="U76" s="3">
         <v>300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4672,17 +4871,20 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-800</v>
       </c>
       <c r="I89" s="3">
         <v>-800</v>
       </c>
       <c r="J89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
       <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,35 +5462,38 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>6800</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5273,29 +5503,32 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
-        <v>100</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>100</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,23 +5796,26 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>4900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5583,26 +5829,26 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>3800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>2100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
       </c>
       <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SILO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>SILO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,8 +820,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -852,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -869,8 +876,8 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,11 +924,11 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
@@ -931,8 +941,8 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
+      <c r="T10" s="3">
+        <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,35 +977,36 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
-        <v>100</v>
-      </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
@@ -1000,7 +1014,7 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
@@ -1012,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>100</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,8 +1119,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1108,11 +1128,11 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1120,26 +1140,26 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1147,11 +1167,14 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,58 +1259,59 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
       </c>
       <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>600</v>
       </c>
       <c r="O17" s="3">
         <v>600</v>
       </c>
       <c r="P17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
@@ -1293,10 +1320,13 @@
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,49 +1334,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-500</v>
       </c>
       <c r="I18" s="3">
         <v>-500</v>
       </c>
       <c r="J18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-600</v>
       </c>
       <c r="O18" s="3">
         <v>-600</v>
       </c>
       <c r="P18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
@@ -1355,10 +1385,13 @@
         <v>-200</v>
       </c>
       <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,16 +1424,16 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
@@ -1408,16 +1442,16 @@
         <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
         <v>7000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1435,16 +1469,19 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>100</v>
-      </c>
       <c r="V20" s="3">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1457,30 +1494,30 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>6500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1502,11 +1539,14 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1519,8 +1559,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1528,8 +1568,8 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1547,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1564,73 +1604,79 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-600</v>
       </c>
       <c r="O23" s="3">
         <v>-600</v>
       </c>
       <c r="P23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1670,14 +1716,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-600</v>
       </c>
       <c r="O26" s="3">
         <v>-600</v>
       </c>
       <c r="P26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-600</v>
       </c>
       <c r="O27" s="3">
         <v>-600</v>
       </c>
       <c r="P27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1966,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L29" s="3">
         <v>-100</v>
@@ -1975,19 +2036,19 @@
         <v>-100</v>
       </c>
       <c r="N29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,16 +2204,16 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
@@ -2152,17 +2222,17 @@
         <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-7000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2179,78 +2249,84 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2574,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2497,96 +2584,99 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>4700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1900</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E42" s="3">
         <v>9800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6000</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>100</v>
       </c>
       <c r="I42" s="3">
+        <v>100</v>
+      </c>
+      <c r="J42" s="3">
         <v>300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>800</v>
-      </c>
-      <c r="L42" s="3">
-        <v>600</v>
       </c>
       <c r="M42" s="3">
         <v>600</v>
       </c>
       <c r="N42" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2604,16 +2694,19 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2626,8 +2719,8 @@
       <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -2635,8 +2728,8 @@
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2651,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
@@ -2662,8 +2755,8 @@
       <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>200</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2700,14 +2796,14 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3">
-        <v>100</v>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2716,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
         <v>200</v>
@@ -2725,10 +2821,10 @@
         <v>200</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2745,25 +2844,25 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
@@ -2775,14 +2874,14 @@
         <v>200</v>
       </c>
       <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
@@ -2798,70 +2897,76 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E46" s="3">
         <v>10200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2871,11 +2976,11 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>100</v>
@@ -2889,8 +2994,8 @@
       <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>100</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -2907,11 +3012,11 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T47" s="3">
         <v>200</v>
@@ -2922,8 +3027,11 @@
       <c r="V47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3188,7 +3308,7 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -3205,14 +3325,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3">
-        <v>100</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
+        <v>100</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,22 +3534,23 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -3428,10 +3559,10 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -3440,7 +3571,7 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3458,7 +3589,7 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -3466,8 +3597,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3511,13 +3645,13 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
-        <v>100</v>
-      </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3528,8 +3662,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3563,8 +3700,8 @@
       <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="N59" s="3">
+        <v>100</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
@@ -3572,17 +3709,17 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
@@ -3590,22 +3727,25 @@
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -3614,10 +3754,10 @@
         <v>300</v>
       </c>
       <c r="J60" s="3">
+        <v>300</v>
+      </c>
+      <c r="K60" s="3">
         <v>500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -3626,7 +3766,7 @@
         <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
@@ -3635,25 +3775,28 @@
         <v>100</v>
       </c>
       <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
-        <v>100</v>
-      </c>
       <c r="S60" s="3">
         <v>100</v>
       </c>
       <c r="T60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3726,7 +3872,7 @@
         <v>800</v>
       </c>
       <c r="F62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G62" s="3">
         <v>900</v>
@@ -3741,17 +3887,17 @@
         <v>900</v>
       </c>
       <c r="K62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L62" s="3">
         <v>1000</v>
       </c>
       <c r="M62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3767,8 +3913,8 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,22 +4117,25 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1200</v>
       </c>
       <c r="H66" s="3">
         <v>1200</v>
@@ -3986,20 +4144,20 @@
         <v>1200</v>
       </c>
       <c r="J66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K66" s="3">
         <v>1400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1200</v>
       </c>
       <c r="L66" s="3">
         <v>1200</v>
       </c>
       <c r="M66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
-        <v>100</v>
-      </c>
       <c r="O66" s="3">
         <v>100</v>
       </c>
@@ -4007,25 +4165,28 @@
         <v>100</v>
       </c>
       <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
-        <v>100</v>
-      </c>
       <c r="S66" s="3">
         <v>100</v>
       </c>
       <c r="T66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4214,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>400</v>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E76" s="3">
         <v>8300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
       <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3">
-        <v>100</v>
-      </c>
       <c r="U76" s="3">
+        <v>100</v>
+      </c>
+      <c r="V76" s="3">
         <v>300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4874,17 +5073,20 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-800</v>
       </c>
       <c r="J89" s="3">
         <v>-800</v>
       </c>
       <c r="K89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
       <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,38 +5692,41 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6000</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6800</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5506,29 +5736,32 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
-        <v>100</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>100</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,26 +6042,29 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>-100</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>4900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5832,26 +6078,26 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>3800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -5861,8 +6107,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>
